--- a/natmiOut/OldD0/LR-pairs_lrc2p/Dll4-Notch4.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Dll4-Notch4.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.2990146878712</v>
+        <v>24.333402</v>
       </c>
       <c r="H2">
-        <v>11.2990146878712</v>
+        <v>73.00020600000001</v>
       </c>
       <c r="I2">
-        <v>0.9419082982224258</v>
+        <v>0.9697175080062574</v>
       </c>
       <c r="J2">
-        <v>0.9419082982224258</v>
+        <v>0.9697175080062576</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>18.4353128443211</v>
+        <v>30.345835</v>
       </c>
       <c r="N2">
-        <v>18.4353128443211</v>
+        <v>91.03750500000001</v>
       </c>
       <c r="O2">
-        <v>0.785327884338429</v>
+        <v>0.8527782452855476</v>
       </c>
       <c r="P2">
-        <v>0.785327884338429</v>
+        <v>0.8527782452855475</v>
       </c>
       <c r="Q2">
-        <v>208.3008706034847</v>
+        <v>738.4174020806702</v>
       </c>
       <c r="R2">
-        <v>208.3008706034847</v>
+        <v>6645.756618726031</v>
       </c>
       <c r="S2">
-        <v>0.7397068510838277</v>
+        <v>0.8269539949002501</v>
       </c>
       <c r="T2">
-        <v>0.7397068510838277</v>
+        <v>0.8269539949002501</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.2990146878712</v>
+        <v>24.333402</v>
       </c>
       <c r="H3">
-        <v>11.2990146878712</v>
+        <v>73.00020600000001</v>
       </c>
       <c r="I3">
-        <v>0.9419082982224258</v>
+        <v>0.9697175080062574</v>
       </c>
       <c r="J3">
-        <v>0.9419082982224258</v>
+        <v>0.9697175080062576</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.12789594829197</v>
+        <v>3.224107666666666</v>
       </c>
       <c r="N3">
-        <v>3.12789594829197</v>
+        <v>9.672322999999999</v>
       </c>
       <c r="O3">
-        <v>0.1332455775633645</v>
+        <v>0.09060383010029813</v>
       </c>
       <c r="P3">
-        <v>0.1332455775633645</v>
+        <v>0.09060383010029811</v>
       </c>
       <c r="Q3">
-        <v>35.34214226188378</v>
+        <v>78.45350794428201</v>
       </c>
       <c r="R3">
-        <v>35.34214226188378</v>
+        <v>706.081571498538</v>
       </c>
       <c r="S3">
-        <v>0.1255051152083729</v>
+        <v>0.08786012034068344</v>
       </c>
       <c r="T3">
-        <v>0.1255051152083729</v>
+        <v>0.08786012034068344</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.2990146878712</v>
+        <v>24.333402</v>
       </c>
       <c r="H4">
-        <v>11.2990146878712</v>
+        <v>73.00020600000001</v>
       </c>
       <c r="I4">
-        <v>0.9419082982224258</v>
+        <v>0.9697175080062574</v>
       </c>
       <c r="J4">
-        <v>0.9419082982224258</v>
+        <v>0.9697175080062576</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.91146110256232</v>
+        <v>2.014730333333333</v>
       </c>
       <c r="N4">
-        <v>1.91146110256232</v>
+        <v>6.044191</v>
       </c>
       <c r="O4">
-        <v>0.08142653809820651</v>
+        <v>0.05661792461415433</v>
       </c>
       <c r="P4">
-        <v>0.08142653809820651</v>
+        <v>0.05661792461415433</v>
       </c>
       <c r="Q4">
-        <v>21.59762707314613</v>
+        <v>49.025243122594</v>
       </c>
       <c r="R4">
-        <v>21.59762707314613</v>
+        <v>441.227188103346</v>
       </c>
       <c r="S4">
-        <v>0.07669633193022521</v>
+        <v>0.05490339276532388</v>
       </c>
       <c r="T4">
-        <v>0.07669633193022521</v>
+        <v>0.05490339276532389</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.273606354511406</v>
+        <v>0.288887</v>
       </c>
       <c r="H5">
-        <v>0.273606354511406</v>
+        <v>0.866661</v>
       </c>
       <c r="I5">
-        <v>0.02280836894895962</v>
+        <v>0.01151252018667195</v>
       </c>
       <c r="J5">
-        <v>0.02280836894895962</v>
+        <v>0.01151252018667195</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>18.4353128443211</v>
+        <v>30.345835</v>
       </c>
       <c r="N5">
-        <v>18.4353128443211</v>
+        <v>91.03750500000001</v>
       </c>
       <c r="O5">
-        <v>0.785327884338429</v>
+        <v>0.8527782452855476</v>
       </c>
       <c r="P5">
-        <v>0.785327884338429</v>
+        <v>0.8527782452855475</v>
       </c>
       <c r="Q5">
-        <v>5.044018741611996</v>
+        <v>8.766517235645001</v>
       </c>
       <c r="R5">
-        <v>5.044018741611996</v>
+        <v>78.898655120805</v>
       </c>
       <c r="S5">
-        <v>0.01791204813189678</v>
+        <v>0.009817626763604552</v>
       </c>
       <c r="T5">
-        <v>0.01791204813189678</v>
+        <v>0.009817626763604552</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.273606354511406</v>
+        <v>0.288887</v>
       </c>
       <c r="H6">
-        <v>0.273606354511406</v>
+        <v>0.866661</v>
       </c>
       <c r="I6">
-        <v>0.02280836894895962</v>
+        <v>0.01151252018667195</v>
       </c>
       <c r="J6">
-        <v>0.02280836894895962</v>
+        <v>0.01151252018667195</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.12789594829197</v>
+        <v>3.224107666666666</v>
       </c>
       <c r="N6">
-        <v>3.12789594829197</v>
+        <v>9.672322999999999</v>
       </c>
       <c r="O6">
-        <v>0.1332455775633645</v>
+        <v>0.09060383010029813</v>
       </c>
       <c r="P6">
-        <v>0.1332455775633645</v>
+        <v>0.09060383010029811</v>
       </c>
       <c r="Q6">
-        <v>0.8558122077031632</v>
+        <v>0.9314027915003332</v>
       </c>
       <c r="R6">
-        <v>0.8558122077031632</v>
+        <v>8.382625123502999</v>
       </c>
       <c r="S6">
-        <v>0.003039114293882433</v>
+        <v>0.001043078423019478</v>
       </c>
       <c r="T6">
-        <v>0.003039114293882433</v>
+        <v>0.001043078423019478</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.273606354511406</v>
+        <v>0.288887</v>
       </c>
       <c r="H7">
-        <v>0.273606354511406</v>
+        <v>0.866661</v>
       </c>
       <c r="I7">
-        <v>0.02280836894895962</v>
+        <v>0.01151252018667195</v>
       </c>
       <c r="J7">
-        <v>0.02280836894895962</v>
+        <v>0.01151252018667195</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.91146110256232</v>
+        <v>2.014730333333333</v>
       </c>
       <c r="N7">
-        <v>1.91146110256232</v>
+        <v>6.044191</v>
       </c>
       <c r="O7">
-        <v>0.08142653809820651</v>
+        <v>0.05661792461415433</v>
       </c>
       <c r="P7">
-        <v>0.08142653809820651</v>
+        <v>0.05661792461415433</v>
       </c>
       <c r="Q7">
-        <v>0.5229879040624291</v>
+        <v>0.5820294018056666</v>
       </c>
       <c r="R7">
-        <v>0.5229879040624291</v>
+        <v>5.238264616251</v>
       </c>
       <c r="S7">
-        <v>0.001857206523180411</v>
+        <v>0.0006518150000479225</v>
       </c>
       <c r="T7">
-        <v>0.001857206523180411</v>
+        <v>0.0006518150000479226</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.423254468210897</v>
+        <v>0.4710003333333333</v>
       </c>
       <c r="H8">
-        <v>0.423254468210897</v>
+        <v>1.413001</v>
       </c>
       <c r="I8">
-        <v>0.03528333282861455</v>
+        <v>0.01876997180707065</v>
       </c>
       <c r="J8">
-        <v>0.03528333282861455</v>
+        <v>0.01876997180707065</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>18.4353128443211</v>
+        <v>30.345835</v>
       </c>
       <c r="N8">
-        <v>18.4353128443211</v>
+        <v>91.03750500000001</v>
       </c>
       <c r="O8">
-        <v>0.785327884338429</v>
+        <v>0.8527782452855476</v>
       </c>
       <c r="P8">
-        <v>0.785327884338429</v>
+        <v>0.8527782452855475</v>
       </c>
       <c r="Q8">
-        <v>7.802828534224647</v>
+        <v>14.29289840027833</v>
       </c>
       <c r="R8">
-        <v>7.802828534224647</v>
+        <v>128.636085602505</v>
       </c>
       <c r="S8">
-        <v>0.0277089851227045</v>
+        <v>0.0160066236216929</v>
       </c>
       <c r="T8">
-        <v>0.0277089851227045</v>
+        <v>0.01600662362169291</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.423254468210897</v>
+        <v>0.4710003333333333</v>
       </c>
       <c r="H9">
-        <v>0.423254468210897</v>
+        <v>1.413001</v>
       </c>
       <c r="I9">
-        <v>0.03528333282861455</v>
+        <v>0.01876997180707065</v>
       </c>
       <c r="J9">
-        <v>0.03528333282861455</v>
+        <v>0.01876997180707065</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.12789594829197</v>
+        <v>3.224107666666666</v>
       </c>
       <c r="N9">
-        <v>3.12789594829197</v>
+        <v>9.672322999999999</v>
       </c>
       <c r="O9">
-        <v>0.1332455775633645</v>
+        <v>0.09060383010029813</v>
       </c>
       <c r="P9">
-        <v>0.1332455775633645</v>
+        <v>0.09060383010029811</v>
       </c>
       <c r="Q9">
-        <v>1.323895936213337</v>
+        <v>1.518555785702555</v>
       </c>
       <c r="R9">
-        <v>1.323895936213337</v>
+        <v>13.667002071323</v>
       </c>
       <c r="S9">
-        <v>0.004701348061109164</v>
+        <v>0.001700631336595215</v>
       </c>
       <c r="T9">
-        <v>0.004701348061109164</v>
+        <v>0.001700631336595215</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.423254468210897</v>
+        <v>0.4710003333333333</v>
       </c>
       <c r="H10">
-        <v>0.423254468210897</v>
+        <v>1.413001</v>
       </c>
       <c r="I10">
-        <v>0.03528333282861455</v>
+        <v>0.01876997180707065</v>
       </c>
       <c r="J10">
-        <v>0.03528333282861455</v>
+        <v>0.01876997180707065</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.91146110256232</v>
+        <v>2.014730333333333</v>
       </c>
       <c r="N10">
-        <v>1.91146110256232</v>
+        <v>6.044191</v>
       </c>
       <c r="O10">
-        <v>0.08142653809820651</v>
+        <v>0.05661792461415433</v>
       </c>
       <c r="P10">
-        <v>0.08142653809820651</v>
+        <v>0.05661792461415433</v>
       </c>
       <c r="Q10">
-        <v>0.8090344524708296</v>
+        <v>0.9489386585767776</v>
       </c>
       <c r="R10">
-        <v>0.8090344524708296</v>
+        <v>8.540447927191</v>
       </c>
       <c r="S10">
-        <v>0.002872999644800883</v>
+        <v>0.001062716848782528</v>
       </c>
       <c r="T10">
-        <v>0.002872999644800883</v>
+        <v>0.001062716848782528</v>
       </c>
     </row>
   </sheetData>
